--- a/アサヒ緑健RPA/01管理/10_設定/設定ファイル.xlsx
+++ b/アサヒ緑健RPA/01管理/10_設定/設定ファイル.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\アサヒ緑健RPA\01管理\10_設定\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hirabaru\Documents\Desktop\20240109_(IDR0015)除外する都道府県の条件を追加\20_ソース\アサヒ緑健RPA\01管理\10_設定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C87CFE5-47C9-4AD9-93EC-59FC9ED4851E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2E7386-A192-42B6-A44B-6774BB3ABC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル(緑効)" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="108">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>配信スケージュールファイルパス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>配信スケジュールシート名</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -136,10 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>処理記録フォルダ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>異常フォルダ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -215,26 +207,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hirabaru</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>asahirpa</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Asahi003-rpa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#F0F0FF</t>
-  </si>
-  <si>
-    <t>hirabaru@softhousewave.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アサヒ緑健お客様サポート &lt;letter@asahi-ryokuken.co.jp&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -283,17 +260,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【RPA】サンプル(緑効)ステップメール正常終了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】サンプル(緑効)ステップメール異常終了</t>
-    <rPh sb="20" eb="22">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>★【新】23年9月～サンプル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -310,17 +276,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【RPA】初回(緑効mini)ステップメール正常終了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】初回(緑効mini)ステップメール異常終了</t>
-    <rPh sb="22" eb="24">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サンプル(キトサン)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -330,17 +285,6 @@
   </si>
   <si>
     <t>ステップメール（サンプル(キトサン)）α回目_yyyyMMdd.csv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】サンプル(キトサン)ステップメール正常終了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】サンプル(キトサン)ステップメール異常終了</t>
-    <rPh sb="22" eb="24">
-      <t>イジョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -374,35 +318,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テストyyMMdd_サンプル(緑効)購入ステップα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストyyMMdd_サンプル(キトサン)購入ステップα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストyyMMdd_初回購入ステップα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストyyMMdd_初回(緑効mini)購入ステップα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【初回購入】ステップメールαUTF8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テンプレート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【mini初回購入】ステップメールα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サンプルステップメールα</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -429,42 +345,308 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\アサヒ緑健RPA\01管理\50_配信スケージュール\配信スケージュール.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C:\アサヒ緑健RPA\01管理\20_連携</t>
   </si>
   <si>
-    <t>C:\アサヒ緑健RPA\01管理\30_処理記録</t>
-  </si>
-  <si>
     <t>C:\アサヒ緑健RPA\01管理\40_異常</t>
   </si>
   <si>
     <t>C:\アサヒ緑健RPA\01管理\60_完了</t>
   </si>
   <si>
-    <t>【RPA】初回(緑効)ステップメール正常終了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】初回(緑効)ステップメール異常終了</t>
+    <t>C:\RPA書き出し用データ\サンプル(緑効)\α　STEP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★キトサン★サンプル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#FFD8E9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#A8FFE3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#E9DAFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#B0FFFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配信スケジュールファイルパス</t>
+  </si>
+  <si>
+    <t>アサヒ緑健 &lt;letter@asahi-ryokuken.co.jp&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサヒ緑健 &lt;letter@asahi-ryokuken.co.jp&gt;</t>
+  </si>
+  <si>
+    <t>新春サンプルステップメールα</t>
+    <rPh sb="0" eb="2">
+      <t>シンシュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新春キトサン・サンプルステップメールα</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新春【初回購入】ステップメールαUTF8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新春【mini初回購入】ステップメールα</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>除外(都道府県)</t>
+    <rPh sb="0" eb="2">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hirabaru</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hirabaru@softhousewave.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストyyMMdd_初回(緑効mini)購入ステップα</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストyyMMdd_初回購入ステップα</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストyyMMdd_キトサンステップα</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストyyMMdd_ステップα</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sfh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\Users\hirabaru\Documents\Desktop\20240109_(IDR0015)除外する都道府県の条件を追加\20_ソース\アサヒ緑健RPA\01管理\50_配信スケジュール\配信スケジュール.xlsx</t>
+  </si>
+  <si>
+    <t>北海、青森、岩手、宮城、秋田、山形、福島、茨城、栃木、群馬、埼玉、千葉、東京、神奈川、新潟、富山、石川、福井、山梨、長野、岐阜、静岡、愛知、三重、滋賀、京都、大阪、兵庫、奈良、和歌山、鳥取、島根、岡山、広島、山口、徳島、香川、愛媛、高知、福岡、佐賀、長崎、熊本、大分、宮崎、鹿児島、沖縄</t>
+    <rPh sb="0" eb="2">
+      <t>ホッカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アオモリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イワテ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミヤギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アキタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヤマガタ</t>
+    </rPh>
     <rPh sb="18" eb="20">
+      <t>フクシマ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イバラギ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トチギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>グンマ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サイタマ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チバ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>カナガワ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニイガタ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>トヤマ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>イシカワ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>フクイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヤマナシ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ナガノ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ギフ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シズオカ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>アイチ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ミエ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>シガ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キョウト</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>オオサカ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒョウゴ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ワカヤマ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>トットリ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>シマネ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>オカヤマ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ヤマグチ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>トクシマ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>カガワ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>エヒメ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>コウチ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>フクオカ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ナガサキ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>オオイタ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ミヤザキ</t>
+    </rPh>
+    <rPh sb="137" eb="140">
+      <t>カゴシマ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>オキナワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【RPA】サンプル(緑効)ステップ正常終了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【RPA】サンプル(緑効)ステップ異常終了</t>
+    <rPh sb="17" eb="19">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\RPA書き出し用データ\サンプル(緑効)\α　STEP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>★キトサン★サンプル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キトサン・サンプルステップメールα</t>
+    <rPh sb="19" eb="21">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【RPA】サンプル(キトサン)ステップ正常終了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【RPA】サンプル(キトサン)ステップ異常終了</t>
+    <rPh sb="19" eb="21">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【RPA】初回購入(緑効)ステップ正常終了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【RPA】初回購入(緑効)ステップ異常終了</t>
+    <rPh sb="17" eb="19">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【RPA】初回購入(緑効mini)ステップ正常終了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【RPA】初回購入(緑効mini)ステップ異常終了</t>
+    <rPh sb="21" eb="23">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>九州</t>
+    <rPh sb="0" eb="2">
+      <t>キュウシュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -472,7 +654,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,16 +669,8 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +680,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCC8C4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,11 +714,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -546,7 +725,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -554,9 +732,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -927,14 +1106,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6F65BF-6EF6-4DDC-B8D1-E0219AE36AEA}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="40.625" customWidth="1"/>
-    <col min="3" max="3" width="70.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="70.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -964,10 +1143,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -980,10 +1159,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -996,10 +1175,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1012,10 +1191,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1025,13 +1204,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1041,13 +1220,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1057,13 +1236,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1073,13 +1252,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1089,13 +1268,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1105,13 +1284,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1121,13 +1300,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1137,13 +1316,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1153,13 +1332,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1169,13 +1348,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1185,13 +1364,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1201,13 +1380,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1217,13 +1396,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1233,13 +1412,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1249,13 +1428,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1265,13 +1444,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1281,13 +1460,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1297,13 +1476,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>86</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1313,13 +1492,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>24</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1329,13 +1508,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1345,13 +1524,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1361,13 +1540,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1377,11 +1554,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1391,13 +1570,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1407,13 +1586,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1423,13 +1602,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -1439,13 +1618,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1455,11 +1632,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -1469,11 +1646,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1483,11 +1662,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="C35" s="7"/>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -1496,12 +1675,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="8"/>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="7"/>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -1510,14 +1689,14 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>48</v>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -1527,13 +1706,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -1543,50 +1722,46 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:E39">
+  <conditionalFormatting sqref="A1:E1048576">
     <cfRule type="expression" dxfId="11" priority="1">
-      <formula>$D2="通販管理(項目)"</formula>
+      <formula>$D1="通販管理(項目)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>$D2="開発設定値"</formula>
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>$D1="開発設定値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>$D2="ユーザー設定値"</formula>
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>$D1="ユーザー設定値"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{D0AD7332-D7C8-4DCE-9CF9-5E185B3B1A0F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30" xr:uid="{D0AD7332-D7C8-4DCE-9CF9-5E185B3B1A0F}">
       <formula1>"のみ,以外"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32" xr:uid="{CEB67729-3A41-4796-9C7A-9C67DB80E782}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{CEB67729-3A41-4796-9C7A-9C67DB80E782}">
       <formula1>"有,無"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24" xr:uid="{186EA1D9-7579-4D52-80D1-1294D6AA5557}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23" xr:uid="{186EA1D9-7579-4D52-80D1-1294D6AA5557}">
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C27 C29:C30 C35:C37 C39" xr:uid="{D3ECA709-C369-42B1-8983-9418FD6B9234}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C26 C28:C29 C34:C36 C38" xr:uid="{D3ECA709-C369-42B1-8983-9418FD6B9234}">
       <formula1>"〇"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39" xr:uid="{5DA1A2D5-9EF2-44C4-8AF5-54F456F4EFB9}">
       <formula1>"ユーザー設定値,開発設定値,通販管理(項目)"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{106EDFB7-F8AA-425F-A09C-D9A97A2C4F37}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{FBB08ECA-3F35-400E-8C81-1CB20CB1B753}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1595,12 +1770,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8214B0A-4061-4526-8E26-4E40BACB7610}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="40.625" customWidth="1"/>
-    <col min="3" max="3" width="70.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="70.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1630,10 +1807,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -1646,10 +1823,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1662,10 +1839,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1678,10 +1855,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1691,13 +1868,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1707,13 +1884,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1723,13 +1900,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1739,13 +1916,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1755,13 +1932,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1771,13 +1948,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1787,13 +1964,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1803,13 +1980,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1819,13 +1996,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1835,13 +2012,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1851,13 +2028,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1867,13 +2044,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1883,13 +2060,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1899,13 +2076,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1915,13 +2092,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1931,13 +2108,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1947,13 +2124,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>100</v>
+        <v>67</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1963,13 +2140,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>101</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1979,13 +2156,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>24</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1995,13 +2172,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -2011,13 +2188,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -2027,13 +2204,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -2043,11 +2218,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -2057,13 +2234,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -2073,13 +2250,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -2089,13 +2266,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -2105,13 +2282,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -2121,11 +2296,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -2135,11 +2310,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C34" s="7"/>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -2149,11 +2324,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="C35" s="7"/>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -2162,12 +2337,14 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="8"/>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -2176,14 +2353,14 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>48</v>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -2193,13 +2370,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>75</v>
+        <v>38</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -2209,50 +2386,44 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:E39">
+  <conditionalFormatting sqref="A1:E1048576">
     <cfRule type="expression" dxfId="8" priority="1">
-      <formula>$D2="通販管理(項目)"</formula>
+      <formula>$D1="通販管理(項目)"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="2">
-      <formula>$D2="開発設定値"</formula>
+      <formula>$D1="開発設定値"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="3">
-      <formula>$D2="ユーザー設定値"</formula>
+      <formula>$D1="ユーザー設定値"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C27 C29:C30 C35:C37 C39" xr:uid="{5D3FCC42-6480-4D0D-BB44-34CC758EEA1B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C26 C28:C29 C34:C36 C38" xr:uid="{5D3FCC42-6480-4D0D-BB44-34CC758EEA1B}">
       <formula1>"〇"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24" xr:uid="{8506EF52-A33F-4122-A45C-4020565CF5BA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23" xr:uid="{8506EF52-A33F-4122-A45C-4020565CF5BA}">
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32" xr:uid="{85206E76-4761-4CA3-8ECE-F0E48BE3C5D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{85206E76-4761-4CA3-8ECE-F0E48BE3C5D2}">
       <formula1>"有,無"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{2A686639-F53C-4CDB-956E-E2A607EE5B51}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30" xr:uid="{2A686639-F53C-4CDB-956E-E2A607EE5B51}">
       <formula1>"のみ,以外"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39" xr:uid="{E8F05FC9-0E0D-45C5-90AC-BDED8CD647BF}">
       <formula1>"ユーザー設定値,開発設定値,通販管理(項目)"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{FD3735F8-D3A9-4482-B811-31FE8CD249BA}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{0DD95CB4-66FC-4A46-AF45-0B087418D00F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2268,7 +2439,7 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="40.625" customWidth="1"/>
-    <col min="3" max="3" width="70.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="70.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2298,10 +2469,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -2314,10 +2485,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -2330,10 +2501,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -2346,10 +2517,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2359,13 +2530,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -2375,13 +2546,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -2391,13 +2562,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2407,13 +2578,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -2423,13 +2594,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2439,13 +2610,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -2455,13 +2626,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2471,13 +2642,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -2487,13 +2658,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -2503,13 +2674,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -2519,13 +2690,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -2535,13 +2706,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -2551,13 +2722,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -2567,13 +2738,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -2583,13 +2754,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -2599,13 +2770,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -2615,13 +2786,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -2631,13 +2802,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>83</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -2647,13 +2818,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -2663,11 +2832,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -2677,13 +2848,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -2693,11 +2862,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -2707,11 +2876,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -2721,13 +2892,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -2737,13 +2908,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -2753,13 +2924,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -2769,13 +2940,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -2785,13 +2956,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -2801,13 +2972,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -2817,11 +2988,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="C35" s="7"/>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -2830,12 +3001,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="8"/>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="7"/>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -2844,14 +3015,14 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>48</v>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -2861,13 +3032,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -2877,50 +3048,46 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:E39">
+  <conditionalFormatting sqref="A1:E1048576">
     <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$D2="通販管理(項目)"</formula>
+      <formula>$D1="通販管理(項目)"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$D2="開発設定値"</formula>
+      <formula>$D1="開発設定値"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$D2="ユーザー設定値"</formula>
+      <formula>$D1="ユーザー設定値"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{F68F557A-5FE4-42D5-9CBA-9A7C7BC0C07E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30" xr:uid="{F68F557A-5FE4-42D5-9CBA-9A7C7BC0C07E}">
       <formula1>"のみ,以外"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32" xr:uid="{7FB9BF27-C06C-48F0-95CC-32DF16D93397}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{7FB9BF27-C06C-48F0-95CC-32DF16D93397}">
       <formula1>"有,無"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24" xr:uid="{9168EF80-0445-44D5-B991-FAA5D95E6C5B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23" xr:uid="{9168EF80-0445-44D5-B991-FAA5D95E6C5B}">
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C27 C29:C30 C35:C37 C39" xr:uid="{D7A60B0C-D185-4035-B39D-DB4BD893D4C9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C26 C28:C29 C34:C36 C38" xr:uid="{D7A60B0C-D185-4035-B39D-DB4BD893D4C9}">
       <formula1>"〇"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39" xr:uid="{CF49EC29-E9E7-49A6-A0A7-D6779EEE2C2B}">
       <formula1>"ユーザー設定値,開発設定値,通販管理(項目)"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{94FFFF24-19FD-4EC2-A397-903189956509}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{6FFE4017-5D8B-4846-91D1-7FFAB5878176}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2930,13 +3097,13 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="40.625" customWidth="1"/>
-    <col min="3" max="3" width="70.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="70.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2966,10 +3133,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -2982,10 +3149,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -2998,10 +3165,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -3014,10 +3181,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -3027,13 +3194,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -3043,13 +3210,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -3059,13 +3226,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -3075,13 +3242,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -3091,13 +3258,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -3107,13 +3274,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -3123,13 +3290,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -3139,13 +3306,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -3155,13 +3322,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -3171,13 +3338,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -3187,13 +3354,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -3203,13 +3370,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -3219,13 +3386,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -3235,13 +3402,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -3251,13 +3418,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -3267,13 +3434,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -3283,13 +3450,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -3299,13 +3466,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>85</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -3315,13 +3482,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -3331,11 +3496,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="C25" s="7"/>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -3345,11 +3510,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -3359,13 +3526,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -3375,11 +3540,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -3389,13 +3556,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -3405,13 +3572,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -3421,13 +3588,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -3437,13 +3604,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -3453,13 +3620,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -3469,13 +3636,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -3485,11 +3652,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="C35" s="7"/>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -3498,12 +3665,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="8"/>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="7"/>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -3512,14 +3679,14 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>48</v>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -3529,13 +3696,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>76</v>
+        <v>38</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -3545,50 +3712,44 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:E39">
+  <conditionalFormatting sqref="A1:E1048576">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$D2="通販管理(項目)"</formula>
+      <formula>$D1="通販管理(項目)"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$D2="開発設定値"</formula>
+      <formula>$D1="開発設定値"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$D2="ユーザー設定値"</formula>
+      <formula>$D1="ユーザー設定値"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C27 C29:C30 C35:C37 C39" xr:uid="{14537601-666C-47F3-9306-62326122997E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C26 C28:C29 C34:C36 C38" xr:uid="{14537601-666C-47F3-9306-62326122997E}">
       <formula1>"〇"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24" xr:uid="{F55F59AE-C6FD-48A7-80C7-24C32E9801CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23" xr:uid="{F55F59AE-C6FD-48A7-80C7-24C32E9801CF}">
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32" xr:uid="{6EC606A6-1E3B-4848-9A48-3ED4F2E24172}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{6EC606A6-1E3B-4848-9A48-3ED4F2E24172}">
       <formula1>"有,無"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{6ABC70F7-3774-493A-8C74-77DDCBD1459F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30" xr:uid="{6ABC70F7-3774-493A-8C74-77DDCBD1459F}">
       <formula1>"のみ,以外"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39" xr:uid="{9A417379-ADC6-46AB-97E7-FC3481C073EA}">
       <formula1>"ユーザー設定値,開発設定値,通販管理(項目)"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{9146F71A-BDC5-42C8-89C5-809B1FEED1C4}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{B3B9DF45-1AE9-4BB4-9C02-A095AE44C22C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/アサヒ緑健RPA/01管理/10_設定/設定ファイル.xlsx
+++ b/アサヒ緑健RPA/01管理/10_設定/設定ファイル.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\アサヒ緑健RPA\01管理\10_設定\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Step_Mail\アサヒ緑健RPA\01管理\10_設定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C87CFE5-47C9-4AD9-93EC-59FC9ED4851E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3E4342-0339-404C-888E-828E4FBFB98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル(緑効)" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="46">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -215,57 +215,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hirabaru</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>asahirpa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Asahi003-rpa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#F0F0FF</t>
-  </si>
-  <si>
-    <t>hirabaru@softhousewave.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アサヒ緑健お客様サポート &lt;letter@asahi-ryokuken.co.jp&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>★初回購入ステップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-  </si>
-  <si>
-    <t>以外</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>700</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>緑効</t>
-    <rPh sb="0" eb="2">
-      <t>リョクコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー設定値</t>
   </si>
   <si>
@@ -275,134 +224,7 @@
     <t>通販管理(項目)</t>
   </si>
   <si>
-    <t>サンプル(緑効)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップメール（サンプル(緑効)）α回目_yyyyMMdd.csv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】サンプル(緑効)ステップメール正常終了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】サンプル(緑効)ステップメール異常終了</t>
-    <rPh sb="20" eb="22">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>★【新】23年9月～サンプル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初回(緑効mini)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\RPA書き出し用データ\初回(緑効mini)\α　STEP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップメール（初回(緑効mini)）α回目_yyyyMMdd.csv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】初回(緑効mini)ステップメール正常終了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】初回(緑効mini)ステップメール異常終了</t>
-    <rPh sb="22" eb="24">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サンプル(キトサン)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\RPA書き出し用データ\サンプル(キトサン)\α　STEP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップメール（サンプル(キトサン)）α回目_yyyyMMdd.csv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】サンプル(キトサン)ステップメール正常終了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】サンプル(キトサン)ステップメール異常終了</t>
-    <rPh sb="22" eb="24">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ステップメール（初回(緑効)）α回目_yyyyMMdd.csv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キトサン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>緑効mini</t>
-    <rPh sb="0" eb="2">
-      <t>リョクコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初回(緑効)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\RPA書き出し用データ\初回(緑効)\α　STEP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストyyMMdd_サンプル(緑効)購入ステップα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストyyMMdd_サンプル(キトサン)購入ステップα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストyyMMdd_初回購入ステップα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストyyMMdd_初回(緑効mini)購入ステップα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【初回購入】ステップメールαUTF8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テンプレート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【mini初回購入】ステップメールα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サンプルステップメールα</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -410,61 +232,6 @@
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配配メール連携_サンプル(緑効)_yyyyMMdd.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配配メール連携_初回(緑効)_yyyyMMdd.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配配メール連携_初回(緑効mini)_yyyyMMdd.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配配メール連携_サンプル(キトサン)_yyyyMMdd.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\アサヒ緑健RPA\01管理\50_配信スケージュール\配信スケージュール.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\アサヒ緑健RPA\01管理\20_連携</t>
-  </si>
-  <si>
-    <t>C:\アサヒ緑健RPA\01管理\30_処理記録</t>
-  </si>
-  <si>
-    <t>C:\アサヒ緑健RPA\01管理\40_異常</t>
-  </si>
-  <si>
-    <t>C:\アサヒ緑健RPA\01管理\60_完了</t>
-  </si>
-  <si>
-    <t>【RPA】初回(緑効)ステップメール正常終了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】初回(緑効)ステップメール異常終了</t>
-    <rPh sb="18" eb="20">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\RPA書き出し用データ\サンプル(緑効)\α　STEP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>★キトサン★サンプル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キトサン・サンプルステップメールα</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -927,13 +694,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6F65BF-6EF6-4DDC-B8D1-E0219AE36AEA}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="45.625" customWidth="1"/>
     <col min="3" max="3" width="70.625" style="9" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -963,11 +728,9 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -979,11 +742,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -995,11 +756,9 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1011,11 +770,9 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1027,11 +784,9 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1043,11 +798,9 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1059,11 +812,9 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1075,11 +826,9 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1091,11 +840,9 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1107,11 +854,9 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1123,11 +868,9 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1139,11 +882,9 @@
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1155,11 +896,9 @@
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1171,11 +910,9 @@
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1187,11 +924,9 @@
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1203,11 +938,9 @@
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1219,11 +952,9 @@
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1235,11 +966,9 @@
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1249,13 +978,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1267,11 +994,9 @@
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1283,11 +1008,9 @@
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1297,13 +1020,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>86</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1315,11 +1036,9 @@
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1331,11 +1050,9 @@
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1347,11 +1064,9 @@
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1363,11 +1078,9 @@
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1381,7 +1094,7 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1393,11 +1106,9 @@
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1409,11 +1120,9 @@
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1425,11 +1134,9 @@
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -1441,11 +1148,9 @@
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1459,7 +1164,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -1473,7 +1178,7 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1487,7 +1192,7 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -1501,7 +1206,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -1513,11 +1218,9 @@
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -1529,11 +1232,9 @@
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -1545,11 +1246,9 @@
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C39" s="8"/>
       <c r="D39" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -1583,10 +1282,6 @@
       <formula1>"ユーザー設定値,開発設定値,通販管理(項目)"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{106EDFB7-F8AA-425F-A09C-D9A97A2C4F37}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{FBB08ECA-3F35-400E-8C81-1CB20CB1B753}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1595,11 +1290,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8214B0A-4061-4526-8E26-4E40BACB7610}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="45.625" customWidth="1"/>
     <col min="3" max="3" width="70.625" style="9" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1629,11 +1324,9 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -1645,11 +1338,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1661,11 +1352,9 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1677,11 +1366,9 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1693,11 +1380,9 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1709,11 +1394,9 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1725,11 +1408,9 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>91</v>
-      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1741,11 +1422,9 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1757,11 +1436,9 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1773,11 +1450,9 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1789,11 +1464,9 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1805,11 +1478,9 @@
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1821,11 +1492,9 @@
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1837,11 +1506,9 @@
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1853,11 +1520,9 @@
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1869,11 +1534,9 @@
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1885,11 +1548,9 @@
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1901,11 +1562,9 @@
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1915,13 +1574,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1933,11 +1590,9 @@
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1949,11 +1604,9 @@
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1963,13 +1616,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>101</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C23" s="10"/>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1981,11 +1632,9 @@
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1997,11 +1646,9 @@
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -2013,11 +1660,9 @@
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -2029,11 +1674,9 @@
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -2047,7 +1690,7 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -2059,11 +1702,9 @@
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -2075,11 +1716,9 @@
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -2091,11 +1730,9 @@
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -2107,11 +1744,9 @@
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -2125,7 +1760,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -2139,7 +1774,7 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -2153,7 +1788,7 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -2167,7 +1802,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -2179,11 +1814,9 @@
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -2195,11 +1828,9 @@
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -2211,11 +1842,9 @@
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C39" s="8"/>
       <c r="D39" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -2249,10 +1878,6 @@
       <formula1>"ユーザー設定値,開発設定値,通販管理(項目)"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{FD3735F8-D3A9-4482-B811-31FE8CD249BA}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{0DD95CB4-66FC-4A46-AF45-0B087418D00F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2261,13 +1886,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="45.625" customWidth="1"/>
     <col min="3" max="3" width="70.625" style="9" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2297,11 +1920,9 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -2313,11 +1934,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -2329,11 +1948,9 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -2345,11 +1962,9 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2361,11 +1976,9 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -2377,11 +1990,9 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -2393,11 +2004,9 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2409,11 +2018,9 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -2425,11 +2032,9 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2441,11 +2046,9 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -2457,11 +2060,9 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2473,11 +2074,9 @@
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -2489,11 +2088,9 @@
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -2505,11 +2102,9 @@
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -2521,11 +2116,9 @@
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -2537,11 +2130,9 @@
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -2553,11 +2144,9 @@
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -2569,11 +2158,9 @@
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -2583,13 +2170,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -2601,11 +2186,9 @@
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -2617,11 +2200,9 @@
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -2631,13 +2212,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>83</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -2649,11 +2228,9 @@
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -2667,7 +2244,7 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -2679,11 +2256,9 @@
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -2697,7 +2272,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -2711,7 +2286,7 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -2723,11 +2298,9 @@
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -2739,11 +2312,9 @@
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -2755,11 +2326,9 @@
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -2771,11 +2340,9 @@
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -2787,11 +2354,9 @@
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -2803,11 +2368,9 @@
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -2821,7 +2384,7 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -2835,7 +2398,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -2847,11 +2410,9 @@
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -2863,11 +2424,9 @@
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -2879,11 +2438,9 @@
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C39" s="8"/>
       <c r="D39" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -2917,10 +2474,6 @@
       <formula1>"ユーザー設定値,開発設定値,通販管理(項目)"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{94FFFF24-19FD-4EC2-A397-903189956509}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{6FFE4017-5D8B-4846-91D1-7FFAB5878176}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2929,13 +2482,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E83737F-BB68-4EF2-B8E3-BFD153F5A976}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="45.625" customWidth="1"/>
     <col min="3" max="3" width="70.625" style="9" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2965,11 +2516,9 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -2981,11 +2530,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -2997,11 +2544,9 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -3013,11 +2558,9 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -3029,11 +2572,9 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -3045,11 +2586,9 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -3061,11 +2600,9 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -3077,11 +2614,9 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -3093,11 +2628,9 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -3109,11 +2642,9 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -3125,11 +2656,9 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -3141,11 +2670,9 @@
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -3157,11 +2684,9 @@
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -3173,11 +2698,9 @@
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -3189,11 +2712,9 @@
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -3205,11 +2726,9 @@
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -3221,11 +2740,9 @@
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -3237,11 +2754,9 @@
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -3251,13 +2766,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -3269,11 +2782,9 @@
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -3285,11 +2796,9 @@
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -3299,13 +2808,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -3317,11 +2824,9 @@
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4">
-        <v>2</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -3335,7 +2840,7 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -3349,7 +2854,7 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -3361,11 +2866,9 @@
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -3379,7 +2882,7 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -3391,11 +2894,9 @@
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -3407,11 +2908,9 @@
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -3423,11 +2922,9 @@
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -3439,11 +2936,9 @@
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -3455,11 +2950,9 @@
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -3471,11 +2964,9 @@
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -3489,7 +2980,7 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -3503,7 +2994,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -3515,11 +3006,9 @@
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -3531,11 +3020,9 @@
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -3547,11 +3034,9 @@
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="C39" s="8"/>
       <c r="D39" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -3585,10 +3070,6 @@
       <formula1>"ユーザー設定値,開発設定値,通販管理(項目)"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{9146F71A-BDC5-42C8-89C5-809B1FEED1C4}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{B3B9DF45-1AE9-4BB4-9C02-A095AE44C22C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/アサヒ緑健RPA/01管理/10_設定/設定ファイル.xlsx
+++ b/アサヒ緑健RPA/01管理/10_設定/設定ファイル.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hirabaru\Documents\Desktop\20240109_(IDR0015)除外する都道府県の条件を追加\20_ソース\アサヒ緑健RPA\01管理\10_設定\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Step_Mail\アサヒ緑健RPA\01管理\10_設定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2E7386-A192-42B6-A44B-6774BB3ABC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3E4342-0339-404C-888E-828E4FBFB98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="46">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -88,6 +88,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>配信スケージュールファイルパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>配信スケジュールシート名</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -132,6 +136,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>処理記録フォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>異常フォルダ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -207,42 +215,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>asahirpa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Asahi003-rpa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>★初回購入ステップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-  </si>
-  <si>
-    <t>以外</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>700</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>緑効</t>
-    <rPh sb="0" eb="2">
-      <t>リョクコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー設定値</t>
   </si>
   <si>
@@ -250,72 +222,6 @@
   </si>
   <si>
     <t>通販管理(項目)</t>
-  </si>
-  <si>
-    <t>サンプル(緑効)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップメール（サンプル(緑効)）α回目_yyyyMMdd.csv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>★【新】23年9月～サンプル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初回(緑効mini)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\RPA書き出し用データ\初回(緑効mini)\α　STEP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップメール（初回(緑効mini)）α回目_yyyyMMdd.csv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サンプル(キトサン)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\RPA書き出し用データ\サンプル(キトサン)\α　STEP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップメール（サンプル(キトサン)）α回目_yyyyMMdd.csv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ステップメール（初回(緑効)）α回目_yyyyMMdd.csv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キトサン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>緑効mini</t>
-    <rPh sb="0" eb="2">
-      <t>リョクコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初回(緑効)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\RPA書き出し用データ\初回(緑効)\α　STEP</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>テンプレート</t>
@@ -325,327 +231,6 @@
     <t>完了フォルダ</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配配メール連携_サンプル(緑効)_yyyyMMdd.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配配メール連携_初回(緑効)_yyyyMMdd.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配配メール連携_初回(緑効mini)_yyyyMMdd.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配配メール連携_サンプル(キトサン)_yyyyMMdd.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\アサヒ緑健RPA\01管理\20_連携</t>
-  </si>
-  <si>
-    <t>C:\アサヒ緑健RPA\01管理\40_異常</t>
-  </si>
-  <si>
-    <t>C:\アサヒ緑健RPA\01管理\60_完了</t>
-  </si>
-  <si>
-    <t>C:\RPA書き出し用データ\サンプル(緑効)\α　STEP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>★キトサン★サンプル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#FFD8E9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#A8FFE3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#E9DAFF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#B0FFFF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配信スケジュールファイルパス</t>
-  </si>
-  <si>
-    <t>アサヒ緑健 &lt;letter@asahi-ryokuken.co.jp&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アサヒ緑健 &lt;letter@asahi-ryokuken.co.jp&gt;</t>
-  </si>
-  <si>
-    <t>新春サンプルステップメールα</t>
-    <rPh sb="0" eb="2">
-      <t>シンシュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新春キトサン・サンプルステップメールα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新春【初回購入】ステップメールαUTF8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新春【mini初回購入】ステップメールα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>除外(都道府県)</t>
-    <rPh sb="0" eb="2">
-      <t>ジョガイ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>トドウフケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hirabaru</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hirabaru@softhousewave.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストyyMMdd_初回(緑効mini)購入ステップα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストyyMMdd_初回購入ステップα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストyyMMdd_キトサンステップα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストyyMMdd_ステップα</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sfh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\Users\hirabaru\Documents\Desktop\20240109_(IDR0015)除外する都道府県の条件を追加\20_ソース\アサヒ緑健RPA\01管理\50_配信スケジュール\配信スケジュール.xlsx</t>
-  </si>
-  <si>
-    <t>北海、青森、岩手、宮城、秋田、山形、福島、茨城、栃木、群馬、埼玉、千葉、東京、神奈川、新潟、富山、石川、福井、山梨、長野、岐阜、静岡、愛知、三重、滋賀、京都、大阪、兵庫、奈良、和歌山、鳥取、島根、岡山、広島、山口、徳島、香川、愛媛、高知、福岡、佐賀、長崎、熊本、大分、宮崎、鹿児島、沖縄</t>
-    <rPh sb="0" eb="2">
-      <t>ホッカイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アオモリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イワテ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ミヤギ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>アキタ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヤマガタ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>フクシマ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イバラギ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トチギ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>グンマ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サイタマ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>チバ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>トウキョウ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>カナガワ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ニイガタ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>トヤマ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>イシカワ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>フクイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヤマナシ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ナガノ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ギフ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>シズオカ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>アイチ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ミエ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>シガ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>キョウト</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>オオサカ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ヒョウゴ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="88" eb="91">
-      <t>ワカヤマ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>トットリ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>シマネ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>オカヤマ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ヤマグチ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>トクシマ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>カガワ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>エヒメ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>コウチ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>フクオカ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>サガ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ナガサキ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>オオイタ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ミヤザキ</t>
-    </rPh>
-    <rPh sb="137" eb="140">
-      <t>カゴシマ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>オキナワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】サンプル(緑効)ステップ正常終了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】サンプル(緑効)ステップ異常終了</t>
-    <rPh sb="17" eb="19">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】サンプル(キトサン)ステップ正常終了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】サンプル(キトサン)ステップ異常終了</t>
-    <rPh sb="19" eb="21">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】初回購入(緑効)ステップ正常終了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】初回購入(緑効)ステップ異常終了</t>
-    <rPh sb="17" eb="19">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】初回購入(緑効mini)ステップ正常終了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【RPA】初回購入(緑効mini)ステップ異常終了</t>
-    <rPh sb="21" eb="23">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>九州</t>
-    <rPh sb="0" eb="2">
-      <t>キュウシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -654,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,8 +254,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,12 +273,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCC8C4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,10 +301,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -725,6 +313,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -732,10 +321,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -1106,14 +694,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6F65BF-6EF6-4DDC-B8D1-E0219AE36AEA}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
-    <col min="3" max="3" width="70.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="45.625" customWidth="1"/>
+    <col min="3" max="3" width="70.625" style="9" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1142,11 +728,9 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -1158,11 +742,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1174,11 +756,9 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1190,11 +770,9 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1204,13 +782,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1220,13 +796,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1236,13 +810,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1252,13 +824,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>76</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1268,13 +838,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1284,13 +852,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>95</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1300,13 +866,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>78</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1316,13 +880,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1332,13 +894,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1348,13 +908,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>99</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1364,13 +922,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1380,13 +936,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1396,13 +950,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1412,13 +964,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1428,13 +978,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>83</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1444,13 +992,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1460,13 +1006,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1476,13 +1020,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1492,13 +1034,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1508,13 +1048,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1524,13 +1062,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1540,11 +1076,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1554,13 +1090,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1570,13 +1104,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1586,13 +1118,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1602,13 +1132,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -1618,11 +1146,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1632,11 +1160,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -1646,13 +1174,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1662,11 +1188,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C35" s="8"/>
       <c r="D35" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -1675,12 +1201,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="7"/>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="8"/>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -1689,14 +1215,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -1706,13 +1230,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -1722,40 +1244,38 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:E1048576">
+  <conditionalFormatting sqref="A2:E39">
     <cfRule type="expression" dxfId="11" priority="1">
-      <formula>$D1="通販管理(項目)"</formula>
+      <formula>$D2="通販管理(項目)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
-      <formula>$D1="開発設定値"</formula>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>$D2="開発設定値"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>$D1="ユーザー設定値"</formula>
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>$D2="ユーザー設定値"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30" xr:uid="{D0AD7332-D7C8-4DCE-9CF9-5E185B3B1A0F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{D0AD7332-D7C8-4DCE-9CF9-5E185B3B1A0F}">
       <formula1>"のみ,以外"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{CEB67729-3A41-4796-9C7A-9C67DB80E782}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32" xr:uid="{CEB67729-3A41-4796-9C7A-9C67DB80E782}">
       <formula1>"有,無"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23" xr:uid="{186EA1D9-7579-4D52-80D1-1294D6AA5557}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24" xr:uid="{186EA1D9-7579-4D52-80D1-1294D6AA5557}">
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C26 C28:C29 C34:C36 C38" xr:uid="{D3ECA709-C369-42B1-8983-9418FD6B9234}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C27 C29:C30 C35:C37 C39" xr:uid="{D3ECA709-C369-42B1-8983-9418FD6B9234}">
       <formula1>"〇"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39" xr:uid="{5DA1A2D5-9EF2-44C4-8AF5-54F456F4EFB9}">
@@ -1770,14 +1290,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8214B0A-4061-4526-8E26-4E40BACB7610}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
-    <col min="3" max="3" width="70.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="45.625" customWidth="1"/>
+    <col min="3" max="3" width="70.625" style="9" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1806,11 +1324,9 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -1822,11 +1338,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1838,11 +1352,9 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1854,11 +1366,9 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1868,13 +1378,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1884,13 +1392,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1900,13 +1406,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1916,13 +1420,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>58</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1932,13 +1434,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1948,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>94</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1964,13 +1462,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1980,13 +1476,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1996,13 +1490,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -2012,13 +1504,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -2028,13 +1518,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>102</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -2044,13 +1532,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -2060,13 +1546,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -2076,13 +1560,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -2092,13 +1574,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -2108,13 +1588,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -2124,13 +1602,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>86</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -2140,13 +1616,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C23" s="10"/>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -2156,13 +1630,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -2172,13 +1644,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -2188,13 +1658,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -2204,11 +1672,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -2218,13 +1686,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -2234,13 +1700,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -2250,13 +1714,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -2266,13 +1728,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -2282,11 +1742,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -2296,11 +1756,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -2310,11 +1770,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -2324,11 +1784,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C35" s="8"/>
       <c r="D35" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -2337,14 +1797,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="8"/>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -2353,14 +1811,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -2370,13 +1826,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -2386,38 +1840,38 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:E1048576">
+  <conditionalFormatting sqref="A2:E39">
     <cfRule type="expression" dxfId="8" priority="1">
-      <formula>$D1="通販管理(項目)"</formula>
+      <formula>$D2="通販管理(項目)"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="2">
-      <formula>$D1="開発設定値"</formula>
+      <formula>$D2="開発設定値"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="3">
-      <formula>$D1="ユーザー設定値"</formula>
+      <formula>$D2="ユーザー設定値"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C26 C28:C29 C34:C36 C38" xr:uid="{5D3FCC42-6480-4D0D-BB44-34CC758EEA1B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C27 C29:C30 C35:C37 C39" xr:uid="{5D3FCC42-6480-4D0D-BB44-34CC758EEA1B}">
       <formula1>"〇"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23" xr:uid="{8506EF52-A33F-4122-A45C-4020565CF5BA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24" xr:uid="{8506EF52-A33F-4122-A45C-4020565CF5BA}">
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{85206E76-4761-4CA3-8ECE-F0E48BE3C5D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32" xr:uid="{85206E76-4761-4CA3-8ECE-F0E48BE3C5D2}">
       <formula1>"有,無"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30" xr:uid="{2A686639-F53C-4CDB-956E-E2A607EE5B51}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{2A686639-F53C-4CDB-956E-E2A607EE5B51}">
       <formula1>"のみ,以外"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39" xr:uid="{E8F05FC9-0E0D-45C5-90AC-BDED8CD647BF}">
@@ -2432,14 +1886,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
-    <col min="3" max="3" width="70.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="45.625" customWidth="1"/>
+    <col min="3" max="3" width="70.625" style="9" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2468,11 +1920,9 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -2484,11 +1934,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -2500,11 +1948,9 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -2516,11 +1962,9 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2530,13 +1974,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -2546,13 +1988,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -2562,13 +2002,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>70</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2578,13 +2016,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -2594,13 +2030,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2610,13 +2044,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -2626,13 +2058,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2642,13 +2072,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -2658,13 +2086,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -2674,13 +2100,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>103</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -2690,13 +2114,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>104</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -2706,13 +2128,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -2722,13 +2142,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -2738,13 +2156,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -2754,13 +2170,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -2770,13 +2184,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -2786,13 +2198,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>87</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -2802,13 +2212,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -2818,11 +2226,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -2832,13 +2240,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -2848,11 +2254,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -2862,11 +2268,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -2876,13 +2282,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -2892,13 +2296,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -2908,13 +2310,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -2924,13 +2324,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -2940,13 +2338,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -2956,13 +2352,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -2972,13 +2366,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -2988,11 +2380,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C35" s="8"/>
       <c r="D35" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -3001,12 +2393,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="7"/>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="8"/>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -3015,14 +2407,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -3032,13 +2422,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -3048,40 +2436,38 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:E1048576">
+  <conditionalFormatting sqref="A2:E39">
     <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$D1="通販管理(項目)"</formula>
+      <formula>$D2="通販管理(項目)"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$D1="開発設定値"</formula>
+      <formula>$D2="開発設定値"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$D1="ユーザー設定値"</formula>
+      <formula>$D2="ユーザー設定値"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30" xr:uid="{F68F557A-5FE4-42D5-9CBA-9A7C7BC0C07E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{F68F557A-5FE4-42D5-9CBA-9A7C7BC0C07E}">
       <formula1>"のみ,以外"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{7FB9BF27-C06C-48F0-95CC-32DF16D93397}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32" xr:uid="{7FB9BF27-C06C-48F0-95CC-32DF16D93397}">
       <formula1>"有,無"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23" xr:uid="{9168EF80-0445-44D5-B991-FAA5D95E6C5B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24" xr:uid="{9168EF80-0445-44D5-B991-FAA5D95E6C5B}">
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C26 C28:C29 C34:C36 C38" xr:uid="{D7A60B0C-D185-4035-B39D-DB4BD893D4C9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C27 C29:C30 C35:C37 C39" xr:uid="{D7A60B0C-D185-4035-B39D-DB4BD893D4C9}">
       <formula1>"〇"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39" xr:uid="{CF49EC29-E9E7-49A6-A0A7-D6779EEE2C2B}">
@@ -3096,14 +2482,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E83737F-BB68-4EF2-B8E3-BFD153F5A976}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
-    <col min="3" max="3" width="70.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="45.625" customWidth="1"/>
+    <col min="3" max="3" width="70.625" style="9" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3132,11 +2516,9 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -3148,11 +2530,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -3164,11 +2544,9 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -3180,11 +2558,9 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -3194,13 +2570,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -3210,13 +2584,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -3226,13 +2598,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>71</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -3242,13 +2612,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -3258,13 +2626,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>56</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -3274,13 +2640,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>92</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -3290,13 +2654,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>79</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -3306,13 +2668,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -3322,13 +2682,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -3338,13 +2696,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>105</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -3354,13 +2710,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>106</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -3370,13 +2724,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -3386,13 +2738,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -3402,13 +2752,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -3418,13 +2766,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -3434,13 +2780,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -3450,13 +2794,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>88</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -3466,13 +2808,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -3482,11 +2822,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -3496,11 +2836,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -3510,13 +2850,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -3526,11 +2864,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -3540,13 +2878,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -3556,13 +2892,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -3572,13 +2906,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -3588,13 +2920,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -3604,13 +2934,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -3620,13 +2948,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -3636,13 +2962,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -3652,11 +2976,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C35" s="8"/>
       <c r="D35" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -3665,12 +2989,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="7"/>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="8"/>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -3679,14 +3003,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -3696,13 +3018,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -3712,38 +3032,38 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:E1048576">
+  <conditionalFormatting sqref="A2:E39">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$D1="通販管理(項目)"</formula>
+      <formula>$D2="通販管理(項目)"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$D1="開発設定値"</formula>
+      <formula>$D2="開発設定値"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$D1="ユーザー設定値"</formula>
+      <formula>$D2="ユーザー設定値"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C26 C28:C29 C34:C36 C38" xr:uid="{14537601-666C-47F3-9306-62326122997E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C27 C29:C30 C35:C37 C39" xr:uid="{14537601-666C-47F3-9306-62326122997E}">
       <formula1>"〇"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23" xr:uid="{F55F59AE-C6FD-48A7-80C7-24C32E9801CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24" xr:uid="{F55F59AE-C6FD-48A7-80C7-24C32E9801CF}">
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{6EC606A6-1E3B-4848-9A48-3ED4F2E24172}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32" xr:uid="{6EC606A6-1E3B-4848-9A48-3ED4F2E24172}">
       <formula1>"有,無"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30" xr:uid="{6ABC70F7-3774-493A-8C74-77DDCBD1459F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{6ABC70F7-3774-493A-8C74-77DDCBD1459F}">
       <formula1>"のみ,以外"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39" xr:uid="{9A417379-ADC6-46AB-97E7-FC3481C073EA}">
